--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H2">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I2">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J2">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N2">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O2">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P2">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q2">
-        <v>1.804937772938223</v>
+        <v>11.42651608252267</v>
       </c>
       <c r="R2">
-        <v>16.244439956444</v>
+        <v>102.838644742704</v>
       </c>
       <c r="S2">
-        <v>0.0003513603289197949</v>
+        <v>0.002728889286288022</v>
       </c>
       <c r="T2">
-        <v>0.0003513603289197949</v>
+        <v>0.002728889286288023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H3">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I3">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J3">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.92577</v>
       </c>
       <c r="O3">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P3">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q3">
-        <v>0.7081059406366667</v>
+        <v>1.79937039178</v>
       </c>
       <c r="R3">
-        <v>6.37295346573</v>
+        <v>16.19433352602</v>
       </c>
       <c r="S3">
-        <v>0.0001378442736045924</v>
+        <v>0.0004297270094165276</v>
       </c>
       <c r="T3">
-        <v>0.0001378442736045924</v>
+        <v>0.0004297270094165277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H4">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I4">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J4">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N4">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O4">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P4">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q4">
-        <v>9.816531160963779</v>
+        <v>11.27713123577734</v>
       </c>
       <c r="R4">
-        <v>88.34878044867401</v>
+        <v>101.494181121996</v>
       </c>
       <c r="S4">
-        <v>0.00191094655410356</v>
+        <v>0.002693213083246516</v>
       </c>
       <c r="T4">
-        <v>0.00191094655410356</v>
+        <v>0.002693213083246516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H5">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I5">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J5">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N5">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O5">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P5">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q5">
-        <v>12.818814835319</v>
+        <v>16.44761604096866</v>
       </c>
       <c r="R5">
-        <v>115.369333517871</v>
+        <v>148.028544368718</v>
       </c>
       <c r="S5">
-        <v>0.00249538962751476</v>
+        <v>0.003928032208157474</v>
       </c>
       <c r="T5">
-        <v>0.00249538962751476</v>
+        <v>0.003928032208157475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H6">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I6">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J6">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N6">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O6">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P6">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q6">
-        <v>1.163055421681556</v>
+        <v>5.907840463096002</v>
       </c>
       <c r="R6">
-        <v>10.467498795134</v>
+        <v>53.17056416786401</v>
       </c>
       <c r="S6">
-        <v>0.0002264075480279558</v>
+        <v>0.001410914965542347</v>
       </c>
       <c r="T6">
-        <v>0.0002264075480279558</v>
+        <v>0.001410914965542347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.294649666666667</v>
+        <v>5.830942</v>
       </c>
       <c r="H7">
-        <v>6.883949</v>
+        <v>17.492826</v>
       </c>
       <c r="I7">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291963</v>
       </c>
       <c r="J7">
-        <v>0.007224335190924396</v>
+        <v>0.01842514351291964</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N7">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O7">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P7">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q7">
-        <v>10.79995987697222</v>
+        <v>30.2920352371</v>
       </c>
       <c r="R7">
-        <v>97.19963889275</v>
+        <v>272.6283171339</v>
       </c>
       <c r="S7">
-        <v>0.002102386858753733</v>
+        <v>0.007234366960268744</v>
       </c>
       <c r="T7">
-        <v>0.002102386858753733</v>
+        <v>0.007234366960268745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>287.769348</v>
       </c>
       <c r="H8">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I8">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J8">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N8">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O8">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P8">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q8">
-        <v>226.355148519696</v>
+        <v>563.9227903448641</v>
       </c>
       <c r="R8">
-        <v>2037.196336677264</v>
+        <v>5075.305113103777</v>
       </c>
       <c r="S8">
-        <v>0.04406369052108677</v>
+        <v>0.1346764709165842</v>
       </c>
       <c r="T8">
-        <v>0.04406369052108677</v>
+        <v>0.1346764709165842</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>287.769348</v>
       </c>
       <c r="H9">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I9">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J9">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>0.92577</v>
       </c>
       <c r="O9">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P9">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q9">
-        <v>88.80274309931998</v>
+        <v>88.80274309932</v>
       </c>
       <c r="R9">
-        <v>799.2246878938799</v>
+        <v>799.2246878938801</v>
       </c>
       <c r="S9">
-        <v>0.01728689015885816</v>
+        <v>0.02120793884037674</v>
       </c>
       <c r="T9">
-        <v>0.01728689015885816</v>
+        <v>0.02120793884037674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>287.769348</v>
       </c>
       <c r="H10">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I10">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J10">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N10">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O10">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P10">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q10">
-        <v>1231.079764745016</v>
+        <v>556.5503314953362</v>
       </c>
       <c r="R10">
-        <v>11079.71788270514</v>
+        <v>5008.952983458025</v>
       </c>
       <c r="S10">
-        <v>0.2396495865689423</v>
+        <v>0.1329157746708713</v>
       </c>
       <c r="T10">
-        <v>0.2396495865689424</v>
+        <v>0.1329157746708713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>287.769348</v>
       </c>
       <c r="H11">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I11">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J11">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N11">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O11">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P11">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q11">
-        <v>1607.592671281764</v>
+        <v>811.7247169091879</v>
       </c>
       <c r="R11">
-        <v>14468.33404153588</v>
+        <v>7305.522452182692</v>
       </c>
       <c r="S11">
-        <v>0.3129439132026771</v>
+        <v>0.1938567160270976</v>
       </c>
       <c r="T11">
-        <v>0.3129439132026771</v>
+        <v>0.1938567160270977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>287.769348</v>
       </c>
       <c r="H12">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I12">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J12">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N12">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O12">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P12">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q12">
-        <v>145.857428803656</v>
+        <v>291.5644501614241</v>
       </c>
       <c r="R12">
-        <v>1312.716859232904</v>
+        <v>2624.080051452817</v>
       </c>
       <c r="S12">
-        <v>0.02839350748165777</v>
+        <v>0.0696316443753966</v>
       </c>
       <c r="T12">
-        <v>0.02839350748165777</v>
+        <v>0.0696316443753966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>287.769348</v>
       </c>
       <c r="H13">
-        <v>863.308044</v>
+        <v>863.3080440000001</v>
       </c>
       <c r="I13">
-        <v>0.9059954806285325</v>
+        <v>0.9093198895683258</v>
       </c>
       <c r="J13">
-        <v>0.9059954806285326</v>
+        <v>0.9093198895683259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N13">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O13">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P13">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q13">
-        <v>1354.410417141</v>
+        <v>1494.9761513274</v>
       </c>
       <c r="R13">
-        <v>12189.693754269</v>
+        <v>13454.7853619466</v>
       </c>
       <c r="S13">
-        <v>0.2636578926953104</v>
+        <v>0.3570313447379992</v>
       </c>
       <c r="T13">
-        <v>0.2636578926953104</v>
+        <v>0.3570313447379992</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H14">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I14">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J14">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N14">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O14">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P14">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q14">
-        <v>1.400492112830222</v>
+        <v>0.8022567958213335</v>
       </c>
       <c r="R14">
-        <v>12.604429015472</v>
+        <v>7.220311162392</v>
       </c>
       <c r="S14">
-        <v>0.0002726284400445354</v>
+        <v>0.0001915955798913348</v>
       </c>
       <c r="T14">
-        <v>0.0002726284400445354</v>
+        <v>0.0001915955798913348</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H15">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I15">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J15">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.92577</v>
       </c>
       <c r="O15">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P15">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q15">
-        <v>0.5494354430266667</v>
+        <v>0.12633396869</v>
       </c>
       <c r="R15">
-        <v>4.94491898724</v>
+        <v>1.13700571821</v>
       </c>
       <c r="S15">
-        <v>0.0001069564950528909</v>
+        <v>3.017117476250693E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001069564950528909</v>
+        <v>3.017117476250693E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H16">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I16">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J16">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N16">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O16">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P16">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q16">
-        <v>7.616868942745778</v>
+        <v>0.7917684713286668</v>
       </c>
       <c r="R16">
-        <v>68.551820484712</v>
+        <v>7.125916241958</v>
       </c>
       <c r="S16">
-        <v>0.001482746727996881</v>
+        <v>0.0001890907502361324</v>
       </c>
       <c r="T16">
-        <v>0.001482746727996881</v>
+        <v>0.0001890907502361324</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H17">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I17">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J17">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N17">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O17">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P17">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q17">
-        <v>9.946408868972</v>
+        <v>1.154788708004333</v>
       </c>
       <c r="R17">
-        <v>89.517679820748</v>
+        <v>10.393098372039</v>
       </c>
       <c r="S17">
-        <v>0.001936229350490956</v>
+        <v>0.0002757875200490412</v>
       </c>
       <c r="T17">
-        <v>0.001936229350490956</v>
+        <v>0.0002757875200490413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H18">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I18">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J18">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N18">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O18">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P18">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q18">
-        <v>0.9024410532435556</v>
+        <v>0.4147900485080001</v>
       </c>
       <c r="R18">
-        <v>8.121969479192</v>
+        <v>3.733110436572</v>
       </c>
       <c r="S18">
-        <v>0.0001756747462723939</v>
+        <v>9.906047576160886E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001756747462723939</v>
+        <v>9.906047576160884E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.780470666666667</v>
+        <v>0.409391</v>
       </c>
       <c r="H19">
-        <v>5.341412</v>
+        <v>1.228173</v>
       </c>
       <c r="I19">
-        <v>0.005605525357730841</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="J19">
-        <v>0.00560552535773084</v>
+        <v>0.001293631102469838</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N19">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O19">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P19">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q19">
-        <v>8.379933565222222</v>
+        <v>2.12680671455</v>
       </c>
       <c r="R19">
-        <v>75.41940208699999</v>
+        <v>19.14126043095</v>
       </c>
       <c r="S19">
-        <v>0.001631289597873183</v>
+        <v>0.0005079256017692136</v>
       </c>
       <c r="T19">
-        <v>0.001631289597873182</v>
+        <v>0.0005079256017692136</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H20">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I20">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J20">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N20">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O20">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P20">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q20">
-        <v>18.46282952936178</v>
+        <v>42.60823400311912</v>
       </c>
       <c r="R20">
-        <v>166.165465764256</v>
+        <v>383.474106028072</v>
       </c>
       <c r="S20">
-        <v>0.003594088368856299</v>
+        <v>0.01017573094362589</v>
       </c>
       <c r="T20">
-        <v>0.003594088368856299</v>
+        <v>0.01017573094362589</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H21">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I21">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J21">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.92577</v>
       </c>
       <c r="O21">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P21">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q21">
-        <v>7.243263156613333</v>
+        <v>6.709656220456666</v>
       </c>
       <c r="R21">
-        <v>65.18936840952</v>
+        <v>60.38690598410999</v>
       </c>
       <c r="S21">
-        <v>0.001410018319366958</v>
+        <v>0.001602405216292108</v>
       </c>
       <c r="T21">
-        <v>0.001410018319366959</v>
+        <v>0.001602405216292108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H22">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I22">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J22">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N22">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O22">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P22">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q22">
-        <v>100.4139556010862</v>
+        <v>42.05119417919756</v>
       </c>
       <c r="R22">
-        <v>903.725600409776</v>
+        <v>378.4607476127781</v>
       </c>
       <c r="S22">
-        <v>0.01954720046148811</v>
+        <v>0.01004269826800043</v>
       </c>
       <c r="T22">
-        <v>0.01954720046148811</v>
+        <v>0.01004269826800043</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H23">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I23">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J23">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N23">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O23">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P23">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q23">
-        <v>131.124516657256</v>
+        <v>61.33136889720543</v>
       </c>
       <c r="R23">
-        <v>1180.120649915304</v>
+        <v>551.9823200748489</v>
       </c>
       <c r="S23">
-        <v>0.02552550785567692</v>
+        <v>0.01464720429991399</v>
       </c>
       <c r="T23">
-        <v>0.02552550785567692</v>
+        <v>0.01464720429991399</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H24">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I24">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J24">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N24">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O24">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P24">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q24">
-        <v>11.89697190986844</v>
+        <v>22.02969366049467</v>
       </c>
       <c r="R24">
-        <v>107.072747188816</v>
+        <v>198.267242944452</v>
       </c>
       <c r="S24">
-        <v>0.002315937993029087</v>
+        <v>0.005261148242926111</v>
       </c>
       <c r="T24">
-        <v>0.002315937993029087</v>
+        <v>0.005261148242926109</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.47212533333333</v>
+        <v>21.74294766666667</v>
       </c>
       <c r="H25">
-        <v>70.416376</v>
+        <v>65.228843</v>
       </c>
       <c r="I25">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="J25">
-        <v>0.0738982091753097</v>
+        <v>0.06870535346642694</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N25">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O25">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P25">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q25">
-        <v>110.4735138917778</v>
+        <v>112.9557002757167</v>
       </c>
       <c r="R25">
-        <v>994.2616250259999</v>
+        <v>1016.60130248145</v>
       </c>
       <c r="S25">
-        <v>0.02150545617689233</v>
+        <v>0.0269761664956684</v>
       </c>
       <c r="T25">
-        <v>0.02150545617689233</v>
+        <v>0.0269761664956684</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H26">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I26">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J26">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N26">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O26">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P26">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q26">
-        <v>0.1670290357773333</v>
+        <v>0.421799604192</v>
       </c>
       <c r="R26">
-        <v>1.503261321996</v>
+        <v>3.796196437728</v>
       </c>
       <c r="S26">
-        <v>3.251490318934598E-05</v>
+        <v>0.0001007345031965297</v>
       </c>
       <c r="T26">
-        <v>3.251490318934598E-05</v>
+        <v>0.0001007345031965297</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H27">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I27">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J27">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.92577</v>
       </c>
       <c r="O27">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P27">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q27">
-        <v>0.06552816072999999</v>
+        <v>0.06642214596</v>
       </c>
       <c r="R27">
-        <v>0.58975344657</v>
+        <v>0.5977993136399999</v>
       </c>
       <c r="S27">
-        <v>1.275611627880206E-05</v>
+        <v>1.586298756098947E-05</v>
       </c>
       <c r="T27">
-        <v>1.275611627880206E-05</v>
+        <v>1.586298756098948E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H28">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I28">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J28">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N28">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O28">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P28">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q28">
-        <v>0.9084223063406666</v>
+        <v>0.416285196408</v>
       </c>
       <c r="R28">
-        <v>8.175800757066</v>
+        <v>3.746566767672</v>
       </c>
       <c r="S28">
-        <v>0.000176839093923079</v>
+        <v>9.941754812349582E-05</v>
       </c>
       <c r="T28">
-        <v>0.000176839093923079</v>
+        <v>9.941754812349584E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H29">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I29">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J29">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N29">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O29">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P29">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q29">
-        <v>1.186253794371</v>
+        <v>0.6071490107639999</v>
       </c>
       <c r="R29">
-        <v>10.676284149339</v>
+        <v>5.464341096875999</v>
       </c>
       <c r="S29">
-        <v>0.0002309234864612782</v>
+        <v>0.0001449997898474461</v>
       </c>
       <c r="T29">
-        <v>0.0002309234864612782</v>
+        <v>0.0001449997898474462</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H30">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I30">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J30">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N30">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O30">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P30">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q30">
-        <v>0.1076292094673333</v>
+        <v>0.218082637872</v>
       </c>
       <c r="R30">
-        <v>0.968662885206</v>
+        <v>1.962743740848</v>
       </c>
       <c r="S30">
-        <v>2.095176631948856E-05</v>
+        <v>5.208266191692474E-05</v>
       </c>
       <c r="T30">
-        <v>2.095176631948856E-05</v>
+        <v>5.208266191692473E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.212347</v>
+        <v>0.215244</v>
       </c>
       <c r="H31">
-        <v>0.637041</v>
+        <v>0.645732</v>
       </c>
       <c r="I31">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279172</v>
       </c>
       <c r="J31">
-        <v>0.0006685403558860862</v>
+        <v>0.0006801476657279173</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N31">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O31">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P31">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q31">
-        <v>0.9994288510833332</v>
+        <v>1.1182033422</v>
       </c>
       <c r="R31">
-        <v>8.994859659749999</v>
+        <v>10.0638300798</v>
       </c>
       <c r="S31">
-        <v>0.0001945549897140924</v>
+        <v>0.0002670501750825313</v>
       </c>
       <c r="T31">
-        <v>0.0001945549897140924</v>
+        <v>0.0002670501750825314</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H32">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I32">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J32">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.7865853333333334</v>
+        <v>1.959634666666667</v>
       </c>
       <c r="N32">
-        <v>2.359756</v>
+        <v>5.878904</v>
       </c>
       <c r="O32">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="P32">
-        <v>0.04863566260895438</v>
+        <v>0.1481068130825975</v>
       </c>
       <c r="Q32">
-        <v>1.650929084183556</v>
+        <v>0.9772678486320001</v>
       </c>
       <c r="R32">
-        <v>14.858361757652</v>
+        <v>8.795410637688001</v>
       </c>
       <c r="S32">
-        <v>0.0003213800468576287</v>
+        <v>0.0002333918530114946</v>
       </c>
       <c r="T32">
-        <v>0.0003213800468576287</v>
+        <v>0.0002333918530114946</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H33">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I33">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J33">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.92577</v>
       </c>
       <c r="O33">
-        <v>0.01908054789287184</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="P33">
-        <v>0.01908054789287185</v>
+        <v>0.0233228581972892</v>
       </c>
       <c r="Q33">
-        <v>0.6476858701766666</v>
+        <v>0.15389352441</v>
       </c>
       <c r="R33">
-        <v>5.829172831589999</v>
+        <v>1.38504171969</v>
       </c>
       <c r="S33">
-        <v>0.0001260825297104391</v>
+        <v>3.675296888033064E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001260825297104391</v>
+        <v>3.675296888033065E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H34">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I34">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J34">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.278008666666667</v>
+        <v>1.934015333333334</v>
       </c>
       <c r="N34">
-        <v>12.834026</v>
+        <v>5.802046000000001</v>
       </c>
       <c r="O34">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="P34">
-        <v>0.264515211933161</v>
+        <v>0.1461705349192014</v>
       </c>
       <c r="Q34">
-        <v>8.978922732082443</v>
+        <v>0.9644915127180002</v>
       </c>
       <c r="R34">
-        <v>80.810304588742</v>
+        <v>8.680423614462001</v>
       </c>
       <c r="S34">
-        <v>0.001747892526707009</v>
+        <v>0.0002303405987234917</v>
       </c>
       <c r="T34">
-        <v>0.001747892526707009</v>
+        <v>0.0002303405987234918</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H35">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I35">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J35">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.586393</v>
+        <v>2.820747666666666</v>
       </c>
       <c r="N35">
-        <v>16.759179</v>
+        <v>8.462242999999999</v>
       </c>
       <c r="O35">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769955</v>
       </c>
       <c r="P35">
-        <v>0.3454144307492272</v>
+        <v>0.2131886899769956</v>
       </c>
       <c r="Q35">
-        <v>11.725032604277</v>
+        <v>1.406704040619</v>
       </c>
       <c r="R35">
-        <v>105.525293438493</v>
+        <v>12.660336365571</v>
       </c>
       <c r="S35">
-        <v>0.002282467226406199</v>
+        <v>0.0003359501319299564</v>
       </c>
       <c r="T35">
-        <v>0.002282467226406199</v>
+        <v>0.0003359501319299566</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H36">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I36">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J36">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5068553333333333</v>
+        <v>1.013188</v>
       </c>
       <c r="N36">
-        <v>1.520566</v>
+        <v>3.039564</v>
       </c>
       <c r="O36">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362248</v>
       </c>
       <c r="P36">
-        <v>0.03133956856160015</v>
+        <v>0.07657552108362246</v>
       </c>
       <c r="Q36">
-        <v>1.063816188546889</v>
+        <v>0.5052758424120001</v>
       </c>
       <c r="R36">
-        <v>9.574345696922</v>
+        <v>4.547482581708</v>
       </c>
       <c r="S36">
-        <v>0.000207089026293446</v>
+        <v>0.0001206703620788893</v>
       </c>
       <c r="T36">
-        <v>0.000207089026293446</v>
+        <v>0.0001206703620788893</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.098855666666667</v>
+        <v>0.498699</v>
       </c>
       <c r="H37">
-        <v>6.296567</v>
+        <v>1.496097</v>
       </c>
       <c r="I37">
-        <v>0.006607909291616375</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="J37">
-        <v>0.006607909291616374</v>
+        <v>0.001575834684129856</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.706583333333334</v>
+        <v>5.195049999999999</v>
       </c>
       <c r="N37">
-        <v>14.11975</v>
+        <v>15.58515</v>
       </c>
       <c r="O37">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="P37">
-        <v>0.2910145782541854</v>
+        <v>0.3926355827402938</v>
       </c>
       <c r="Q37">
-        <v>9.878439099805556</v>
+        <v>2.59076623995</v>
       </c>
       <c r="R37">
-        <v>88.90595189825</v>
+        <v>23.31689615955</v>
       </c>
       <c r="S37">
-        <v>0.001922997935641652</v>
+        <v>0.0006187287695056927</v>
       </c>
       <c r="T37">
-        <v>0.001922997935641652</v>
+        <v>0.0006187287695056927</v>
       </c>
     </row>
   </sheetData>
